--- a/modelCatalog/instances/Variables/CYCLES_output.xlsx
+++ b/modelCatalog/instances/Variables/CYCLES_output.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deborahkhider/Documents/GitHub/Mint-ModelCatalog-Ontology/modelCatalog/instances/Variables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgarijo\Documents\GitHub\Mint-ModelCatalog-Ontology\modelCatalog\instances\Variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0837E4BB-85A9-514F-81D1-0FCE47AFC9D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="660" windowWidth="24640" windowHeight="14000" xr2:uid="{8B1F7525-1425-5043-9314-28E09C05D54C}"/>
+    <workbookView xWindow="11040" yWindow="660" windowWidth="24636" windowHeight="14004"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1187,7 +1186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1282,7 +1281,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BEB8DE20-A20E-7A4F-A174-C0470562748D}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1593,20 +1592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9147BDDC-F2C3-454A-8AE0-205F1F508B29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137:XFD137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.796875" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>101</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>101</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>101</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>101</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>101</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>101</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>101</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>101</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>101</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>132</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>132</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>132</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>132</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>132</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>132</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>132</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>132</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>132</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>132</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>162</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>162</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>162</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>162</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>162</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>162</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>162</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>162</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>162</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>162</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>162</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>162</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>162</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>162</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>162</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>162</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>162</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>162</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>203</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>203</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>203</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>203</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>203</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>213</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>213</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>213</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>213</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>213</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>213</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>213</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>213</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>213</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>213</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>213</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>213</v>
       </c>
@@ -3206,7 +3206,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>213</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>267</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>267</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>267</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>267</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>267</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>267</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>267</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>267</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>267</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>267</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>267</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>267</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>267</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>267</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>267</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>267</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>267</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>267</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>267</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>267</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>267</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>267</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>334</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>334</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>334</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>334</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>334</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>334</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>334</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>334</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>334</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>334</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>334</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>357</v>
       </c>
@@ -3793,83 +3793,83 @@
         <v>361</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>362</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>69</v>
+        <v>359</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>359</v>
+        <v>164</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>371</v>
+        <v>68</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>372</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
